--- a/LCR_table6_result.xlsx
+++ b/LCR_table6_result.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2EE43A5D-7B9C-994A-BF82-161AC75A7DFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +69,17 @@
   </si>
   <si>
     <t>0.0010±0.00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -123,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,17 +138,31 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +236,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +288,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,40 +481,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -469,44 +531,68 @@
       <c r="C2" s="2">
         <v>0.52310000000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="2">
         <v>0.81159999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>0.4093</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>0.3407</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>0.24299999999999999</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
+    <row r="3" spans="1:13" ht="15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>0.52629999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
+        <f>(C3-C2)/C2</f>
+        <v>6.1173771745363804E-3</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.81410000000000005</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="4">
+        <f>(E3-E2)/E2</f>
+        <v>3.0803351404633536E-3</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.41260000000000002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="4">
+        <f>(G3-G2)/G2</f>
+        <v>8.0625458099194362E-3</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.34360000000000002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="4">
+        <f>(I3-I2)/I2</f>
+        <v>8.5118872908717755E-3</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.2462</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="4">
+        <f>(K3-K2)/K2</f>
+        <v>1.3168724279835425E-2</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -516,43 +602,67 @@
       <c r="C4" s="2">
         <v>0.53949999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2">
         <v>0.67779999999999996</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>0.48259999999999997</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>0.39750000000000002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>0.2717</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:13" ht="15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>0.56359999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
+        <f>(C5-C4)/C4</f>
+        <v>4.467099165894349E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.69330000000000003</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="4">
+        <f>(E5-E4)/E4</f>
+        <v>2.2868102685157966E-2</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="4">
+        <f>(G5-G4)/G4</f>
+        <v>6.5064235391628769E-2</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.42420000000000002</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J5" s="4">
+        <f>(I5-I4)/I4</f>
+        <v>6.7169811320754724E-2</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.2858</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" s="4">
+        <f>(K5-K4)/K4</f>
+        <v>5.189547294810453E-2</v>
+      </c>
+      <c r="M5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -562,39 +672,63 @@
       <c r="C6" s="2">
         <v>0.79330000000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
         <v>0.9748</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>0.81769999999999998</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>0.81040000000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>0.78339999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:13" ht="15">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0.80120000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
+        <f>(C7-C6)/C6</f>
+        <v>9.9584016135131955E-3</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.9768</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="4">
+        <f>(E7-E6)/E6</f>
+        <v>2.0517029134181387E-3</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.83340000000000003</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="4">
+        <f>(G7-G6)/G6</f>
+        <v>1.9200195670783963E-2</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.82640000000000002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="4">
+        <f>(I7-I6)/I6</f>
+        <v>1.9743336623889454E-2</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.79749999999999999</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="4">
+        <f>(K7-K6)/K6</f>
+        <v>1.7998468215471027E-2</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -606,12 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,12 +754,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
